--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>61.04107158161503</v>
+        <v>90.46774719844623</v>
       </c>
       <c r="R2">
-        <v>61.04107158161503</v>
+        <v>814.2097247860161</v>
       </c>
       <c r="S2">
-        <v>0.009857919821510519</v>
+        <v>0.01285704965320066</v>
       </c>
       <c r="T2">
-        <v>0.009857919821510519</v>
+        <v>0.01530449569400354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>532.3922940918191</v>
+        <v>595.7876775658357</v>
       </c>
       <c r="R3">
-        <v>532.3922940918191</v>
+        <v>5362.089098092521</v>
       </c>
       <c r="S3">
-        <v>0.08597949565367612</v>
+        <v>0.08467185257112946</v>
       </c>
       <c r="T3">
-        <v>0.08597949565367612</v>
+        <v>0.1007898419957926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>434.5540183882543</v>
+        <v>500.3490262421262</v>
       </c>
       <c r="R4">
-        <v>434.5540183882543</v>
+        <v>4503.141236179136</v>
       </c>
       <c r="S4">
-        <v>0.07017895591264255</v>
+        <v>0.071108350473395</v>
       </c>
       <c r="T4">
-        <v>0.07017895591264255</v>
+        <v>0.08464441477495978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>479.9753759007757</v>
+        <v>515.0928615443698</v>
       </c>
       <c r="R5">
-        <v>479.9753759007757</v>
+        <v>4635.835753899329</v>
       </c>
       <c r="S5">
-        <v>0.07751434647740224</v>
+        <v>0.07320370742026075</v>
       </c>
       <c r="T5">
-        <v>0.07751434647740224</v>
+        <v>0.0871386402960321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>189.1837353922136</v>
+        <v>220.9859753437294</v>
       </c>
       <c r="R6">
-        <v>189.1837353922136</v>
+        <v>1325.915852062376</v>
       </c>
       <c r="S6">
-        <v>0.03055251237745327</v>
+        <v>0.03140597335117571</v>
       </c>
       <c r="T6">
-        <v>0.03055251237745327</v>
+        <v>0.02492290724460799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>2.374974340453647</v>
+        <v>3.572238682560889</v>
       </c>
       <c r="R7">
-        <v>2.374974340453647</v>
+        <v>32.150148143048</v>
       </c>
       <c r="S7">
-        <v>0.0003835500593241293</v>
+        <v>0.0005076776148081009</v>
       </c>
       <c r="T7">
-        <v>0.0003835500593241293</v>
+        <v>0.0006043182595812996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>20.71421757124185</v>
+        <v>23.52546464681222</v>
       </c>
       <c r="R8">
-        <v>20.71421757124185</v>
+        <v>211.72918182131</v>
       </c>
       <c r="S8">
-        <v>0.003345273775372734</v>
+        <v>0.003343380115514539</v>
       </c>
       <c r="T8">
-        <v>0.003345273775372734</v>
+        <v>0.00397982025126358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>16.90754464939588</v>
+        <v>19.75694323860089</v>
       </c>
       <c r="R9">
-        <v>16.90754464939588</v>
+        <v>177.812489147408</v>
       </c>
       <c r="S9">
-        <v>0.002730509396603616</v>
+        <v>0.002807807291331791</v>
       </c>
       <c r="T9">
-        <v>0.002730509396603616</v>
+        <v>0.00334229669783391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>18.67479014174567</v>
+        <v>20.33912308088711</v>
       </c>
       <c r="R10">
-        <v>18.67479014174567</v>
+        <v>183.052107727984</v>
       </c>
       <c r="S10">
-        <v>0.003015913369979424</v>
+        <v>0.002890545232434131</v>
       </c>
       <c r="T10">
-        <v>0.003015913369979424</v>
+        <v>0.003440784492272524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>7.360724599779249</v>
+        <v>8.725923590146333</v>
       </c>
       <c r="R11">
-        <v>7.360724599779249</v>
+        <v>52.355541540878</v>
       </c>
       <c r="S11">
-        <v>0.001188731309145279</v>
+        <v>0.001240106406346694</v>
       </c>
       <c r="T11">
-        <v>0.001188731309145279</v>
+        <v>0.0009841139643476692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H12">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I12">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J12">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>28.72015609004865</v>
+        <v>44.23299417627423</v>
       </c>
       <c r="R12">
-        <v>28.72015609004865</v>
+        <v>398.096947586468</v>
       </c>
       <c r="S12">
-        <v>0.004638204878471365</v>
+        <v>0.006286282349737349</v>
       </c>
       <c r="T12">
-        <v>0.004638204878471365</v>
+        <v>0.007482928334876226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H13">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I13">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J13">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>250.4934692539285</v>
+        <v>291.3024109493705</v>
       </c>
       <c r="R13">
-        <v>250.4934692539285</v>
+        <v>2621.721698544335</v>
       </c>
       <c r="S13">
-        <v>0.04045382021866372</v>
+        <v>0.04139916907025008</v>
       </c>
       <c r="T13">
-        <v>0.04045382021866372</v>
+        <v>0.04927984427696749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H14">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I14">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J14">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>204.4600285396616</v>
+        <v>244.6389597314142</v>
       </c>
       <c r="R14">
-        <v>204.4600285396616</v>
+        <v>2201.750637582728</v>
       </c>
       <c r="S14">
-        <v>0.03301958035505394</v>
+        <v>0.03476747625288682</v>
       </c>
       <c r="T14">
-        <v>0.03301958035505394</v>
+        <v>0.04138575372703919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H15">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I15">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J15">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>225.8310242279881</v>
+        <v>251.8477606715937</v>
       </c>
       <c r="R15">
-        <v>225.8310242279881</v>
+        <v>2266.629846044344</v>
       </c>
       <c r="S15">
-        <v>0.03647092150196823</v>
+        <v>0.0357919729878903</v>
       </c>
       <c r="T15">
-        <v>0.03647092150196823</v>
+        <v>0.04260527191296127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H16">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I16">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J16">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>89.01197618882104</v>
+        <v>108.0481349776038</v>
       </c>
       <c r="R16">
-        <v>89.01197618882104</v>
+        <v>648.288809865623</v>
       </c>
       <c r="S16">
-        <v>0.01437512320291388</v>
+        <v>0.01535553033387171</v>
       </c>
       <c r="T16">
-        <v>0.01437512320291388</v>
+        <v>0.0121857219301411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H17">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I17">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J17">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>46.58281205580302</v>
+        <v>67.21517441567067</v>
       </c>
       <c r="R17">
-        <v>46.58281205580302</v>
+        <v>604.936569741036</v>
       </c>
       <c r="S17">
-        <v>0.00752296141611166</v>
+        <v>0.009552452245938786</v>
       </c>
       <c r="T17">
-        <v>0.00752296141611166</v>
+        <v>0.0113708407611812</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H18">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I18">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J18">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>406.289233348037</v>
+        <v>442.6546907866717</v>
       </c>
       <c r="R18">
-        <v>406.289233348037</v>
+        <v>3983.892217080045</v>
       </c>
       <c r="S18">
-        <v>0.06561429186794035</v>
+        <v>0.06290897601531262</v>
       </c>
       <c r="T18">
-        <v>0.06561429186794035</v>
+        <v>0.07488422138129067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H19">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I19">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J19">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>331.6250459267976</v>
+        <v>371.7462643764507</v>
       </c>
       <c r="R19">
-        <v>331.6250459267976</v>
+        <v>3345.716379388056</v>
       </c>
       <c r="S19">
-        <v>0.0535562864288861</v>
+        <v>0.05283164804574653</v>
       </c>
       <c r="T19">
-        <v>0.0535562864288861</v>
+        <v>0.06288859044905018</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H20">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I20">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J20">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>366.2878476355817</v>
+        <v>382.7005491031653</v>
       </c>
       <c r="R20">
-        <v>366.2878476355817</v>
+        <v>3444.304941928488</v>
       </c>
       <c r="S20">
-        <v>0.05915420781493578</v>
+        <v>0.0543884435558384</v>
       </c>
       <c r="T20">
-        <v>0.05915420781493578</v>
+        <v>0.06474173489690677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H21">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I21">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J21">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>144.3734548140626</v>
+        <v>164.1868106162035</v>
       </c>
       <c r="R21">
-        <v>144.3734548140626</v>
+        <v>985.1208636972209</v>
       </c>
       <c r="S21">
-        <v>0.02331580860287783</v>
+        <v>0.02333381831497</v>
       </c>
       <c r="T21">
-        <v>0.02331580860287783</v>
+        <v>0.01851706944484055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H22">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I22">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J22">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>83.99096905496798</v>
+        <v>125.5960631973493</v>
       </c>
       <c r="R22">
-        <v>83.99096905496798</v>
+        <v>753.5763791840959</v>
       </c>
       <c r="S22">
-        <v>0.01356424809102178</v>
+        <v>0.01784939794325487</v>
       </c>
       <c r="T22">
-        <v>0.01356424809102178</v>
+        <v>0.01416478592583356</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H23">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I23">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J23">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>732.5583175318543</v>
+        <v>827.1299896483533</v>
       </c>
       <c r="R23">
-        <v>732.5583175318543</v>
+        <v>4962.779937890119</v>
       </c>
       <c r="S23">
-        <v>0.11830560918568</v>
+        <v>0.117549642561928</v>
       </c>
       <c r="T23">
-        <v>0.11830560918568</v>
+        <v>0.09328412800484275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H24">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I24">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J24">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>597.9353272387976</v>
+        <v>694.6328373004692</v>
       </c>
       <c r="R24">
-        <v>597.9353272387976</v>
+        <v>4167.797023802816</v>
       </c>
       <c r="S24">
-        <v>0.09656446654098479</v>
+        <v>0.09871947911254246</v>
       </c>
       <c r="T24">
-        <v>0.09656446654098479</v>
+        <v>0.07834103384239817</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H25">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I25">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J25">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>660.4339651955052</v>
+        <v>715.1016532899946</v>
       </c>
       <c r="R25">
-        <v>660.4339651955052</v>
+        <v>4290.609919739967</v>
       </c>
       <c r="S25">
-        <v>0.1066577782402571</v>
+        <v>0.1016284559763332</v>
       </c>
       <c r="T25">
-        <v>0.1066577782402571</v>
+        <v>0.08064951700075422</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H26">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I26">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J26">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>260.3120301350754</v>
+        <v>306.794071749314</v>
       </c>
       <c r="R26">
-        <v>260.3120301350754</v>
+        <v>1227.176286997256</v>
       </c>
       <c r="S26">
-        <v>0.0420394835011235</v>
+        <v>0.04360080510390203</v>
       </c>
       <c r="T26">
-        <v>0.0420394835011235</v>
+        <v>0.02306692444022173</v>
       </c>
     </row>
   </sheetData>
